--- a/data/forms.xlsx
+++ b/data/forms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arabi\OneDrive\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arabi\OneDrive\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Human Recourses" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="158">
   <si>
     <t>serial</t>
   </si>
@@ -225,300 +225,27 @@
     <t>AS-002</t>
   </si>
   <si>
-    <t>AS-003</t>
-  </si>
-  <si>
-    <t>AS-004</t>
-  </si>
-  <si>
-    <t>AS-005</t>
-  </si>
-  <si>
-    <t>AS-006</t>
-  </si>
-  <si>
-    <t>AS-007</t>
-  </si>
-  <si>
-    <t>AS-008</t>
-  </si>
-  <si>
-    <t>AS-009</t>
-  </si>
-  <si>
-    <t>AS-010</t>
-  </si>
-  <si>
-    <t>AS-011</t>
-  </si>
-  <si>
-    <t>AS-012</t>
-  </si>
-  <si>
-    <t>AS-013</t>
-  </si>
-  <si>
-    <t>AS-014</t>
-  </si>
-  <si>
-    <t>AS-015</t>
-  </si>
-  <si>
-    <t>AS-016</t>
-  </si>
-  <si>
-    <t>AS-017</t>
-  </si>
-  <si>
-    <t>AS-018</t>
-  </si>
-  <si>
-    <t>AS-019</t>
-  </si>
-  <si>
-    <t>AS-020</t>
-  </si>
-  <si>
     <t>MR-001</t>
   </si>
   <si>
     <t>MR-002</t>
   </si>
   <si>
-    <t>MR-003</t>
-  </si>
-  <si>
-    <t>MR-004</t>
-  </si>
-  <si>
-    <t>MR-005</t>
-  </si>
-  <si>
-    <t>MR-006</t>
-  </si>
-  <si>
-    <t>MR-007</t>
-  </si>
-  <si>
-    <t>MR-008</t>
-  </si>
-  <si>
-    <t>MR-009</t>
-  </si>
-  <si>
-    <t>MR-010</t>
-  </si>
-  <si>
-    <t>MR-011</t>
-  </si>
-  <si>
-    <t>MR-012</t>
-  </si>
-  <si>
-    <t>MR-013</t>
-  </si>
-  <si>
-    <t>MR-014</t>
-  </si>
-  <si>
-    <t>MR-015</t>
-  </si>
-  <si>
-    <t>MR-016</t>
-  </si>
-  <si>
-    <t>MR-017</t>
-  </si>
-  <si>
-    <t>MR-018</t>
-  </si>
-  <si>
-    <t>MR-019</t>
-  </si>
-  <si>
-    <t>MR-020</t>
-  </si>
-  <si>
     <t>PD-001</t>
   </si>
   <si>
     <t>PD-002</t>
   </si>
   <si>
-    <t>PD-003</t>
-  </si>
-  <si>
-    <t>PD-004</t>
-  </si>
-  <si>
-    <t>PD-005</t>
-  </si>
-  <si>
-    <t>PD-006</t>
-  </si>
-  <si>
-    <t>PD-007</t>
-  </si>
-  <si>
-    <t>PD-008</t>
-  </si>
-  <si>
-    <t>PD-009</t>
-  </si>
-  <si>
-    <t>PD-010</t>
-  </si>
-  <si>
-    <t>PD-011</t>
-  </si>
-  <si>
-    <t>PD-012</t>
-  </si>
-  <si>
-    <t>PD-013</t>
-  </si>
-  <si>
-    <t>PD-014</t>
-  </si>
-  <si>
-    <t>PD-015</t>
-  </si>
-  <si>
-    <t>PD-016</t>
-  </si>
-  <si>
-    <t>PD-017</t>
-  </si>
-  <si>
-    <t>PD-018</t>
-  </si>
-  <si>
-    <t>PD-019</t>
-  </si>
-  <si>
-    <t>PD-020</t>
-  </si>
-  <si>
     <t>RL-001</t>
   </si>
   <si>
     <t>RL-002</t>
   </si>
   <si>
-    <t>RL-003</t>
-  </si>
-  <si>
-    <t>RL-004</t>
-  </si>
-  <si>
-    <t>RL-005</t>
-  </si>
-  <si>
-    <t>RL-006</t>
-  </si>
-  <si>
-    <t>RL-007</t>
-  </si>
-  <si>
-    <t>RL-008</t>
-  </si>
-  <si>
-    <t>RL-009</t>
-  </si>
-  <si>
-    <t>RL-010</t>
-  </si>
-  <si>
-    <t>RL-011</t>
-  </si>
-  <si>
-    <t>RL-012</t>
-  </si>
-  <si>
-    <t>RL-013</t>
-  </si>
-  <si>
-    <t>RL-014</t>
-  </si>
-  <si>
-    <t>RL-015</t>
-  </si>
-  <si>
-    <t>RL-016</t>
-  </si>
-  <si>
-    <t>RL-017</t>
-  </si>
-  <si>
-    <t>RL-018</t>
-  </si>
-  <si>
-    <t>RL-019</t>
-  </si>
-  <si>
-    <t>RL-020</t>
-  </si>
-  <si>
     <t>NT-001</t>
   </si>
   <si>
-    <t>NT-002</t>
-  </si>
-  <si>
-    <t>NT-003</t>
-  </si>
-  <si>
-    <t>NT-004</t>
-  </si>
-  <si>
-    <t>NT-005</t>
-  </si>
-  <si>
-    <t>NT-006</t>
-  </si>
-  <si>
-    <t>NT-007</t>
-  </si>
-  <si>
-    <t>NT-008</t>
-  </si>
-  <si>
-    <t>NT-009</t>
-  </si>
-  <si>
-    <t>NT-010</t>
-  </si>
-  <si>
-    <t>NT-011</t>
-  </si>
-  <si>
-    <t>NT-012</t>
-  </si>
-  <si>
-    <t>NT-013</t>
-  </si>
-  <si>
-    <t>NT-014</t>
-  </si>
-  <si>
-    <t>NT-015</t>
-  </si>
-  <si>
-    <t>NT-016</t>
-  </si>
-  <si>
-    <t>NT-017</t>
-  </si>
-  <si>
-    <t>NT-018</t>
-  </si>
-  <si>
-    <t>NT-019</t>
-  </si>
-  <si>
-    <t>NT-020</t>
-  </si>
-  <si>
     <t>PR-001</t>
   </si>
   <si>
@@ -546,99 +273,12 @@
     <t>PR-009</t>
   </si>
   <si>
-    <t>PR-010</t>
-  </si>
-  <si>
-    <t>PR-011</t>
-  </si>
-  <si>
-    <t>PR-012</t>
-  </si>
-  <si>
-    <t>PR-013</t>
-  </si>
-  <si>
-    <t>PR-014</t>
-  </si>
-  <si>
-    <t>PR-015</t>
-  </si>
-  <si>
-    <t>PR-016</t>
-  </si>
-  <si>
-    <t>PR-017</t>
-  </si>
-  <si>
-    <t>PR-018</t>
-  </si>
-  <si>
-    <t>PR-019</t>
-  </si>
-  <si>
-    <t>PR-020</t>
-  </si>
-  <si>
     <t>RT-001</t>
   </si>
   <si>
     <t>RT-002</t>
   </si>
   <si>
-    <t>RT-003</t>
-  </si>
-  <si>
-    <t>RT-004</t>
-  </si>
-  <si>
-    <t>RT-005</t>
-  </si>
-  <si>
-    <t>RT-006</t>
-  </si>
-  <si>
-    <t>RT-007</t>
-  </si>
-  <si>
-    <t>RT-008</t>
-  </si>
-  <si>
-    <t>RT-009</t>
-  </si>
-  <si>
-    <t>RT-010</t>
-  </si>
-  <si>
-    <t>RT-011</t>
-  </si>
-  <si>
-    <t>RT-012</t>
-  </si>
-  <si>
-    <t>RT-013</t>
-  </si>
-  <si>
-    <t>RT-014</t>
-  </si>
-  <si>
-    <t>RT-015</t>
-  </si>
-  <si>
-    <t>RT-016</t>
-  </si>
-  <si>
-    <t>RT-017</t>
-  </si>
-  <si>
-    <t>RT-018</t>
-  </si>
-  <si>
-    <t>RT-019</t>
-  </si>
-  <si>
-    <t>RT-020</t>
-  </si>
-  <si>
     <t>WS-001</t>
   </si>
   <si>
@@ -651,54 +291,6 @@
     <t>WS-004</t>
   </si>
   <si>
-    <t>WS-005</t>
-  </si>
-  <si>
-    <t>WS-006</t>
-  </si>
-  <si>
-    <t>WS-007</t>
-  </si>
-  <si>
-    <t>WS-008</t>
-  </si>
-  <si>
-    <t>WS-009</t>
-  </si>
-  <si>
-    <t>WS-010</t>
-  </si>
-  <si>
-    <t>WS-011</t>
-  </si>
-  <si>
-    <t>WS-012</t>
-  </si>
-  <si>
-    <t>WS-013</t>
-  </si>
-  <si>
-    <t>WS-014</t>
-  </si>
-  <si>
-    <t>WS-015</t>
-  </si>
-  <si>
-    <t>WS-016</t>
-  </si>
-  <si>
-    <t>WS-017</t>
-  </si>
-  <si>
-    <t>WS-018</t>
-  </si>
-  <si>
-    <t>WS-019</t>
-  </si>
-  <si>
-    <t>WS-020</t>
-  </si>
-  <si>
     <t>FN-001</t>
   </si>
   <si>
@@ -717,48 +309,6 @@
     <t>FN-006</t>
   </si>
   <si>
-    <t>FN-007</t>
-  </si>
-  <si>
-    <t>FN-008</t>
-  </si>
-  <si>
-    <t>FN-009</t>
-  </si>
-  <si>
-    <t>FN-010</t>
-  </si>
-  <si>
-    <t>FN-011</t>
-  </si>
-  <si>
-    <t>FN-012</t>
-  </si>
-  <si>
-    <t>FN-013</t>
-  </si>
-  <si>
-    <t>FN-014</t>
-  </si>
-  <si>
-    <t>FN-015</t>
-  </si>
-  <si>
-    <t>FN-016</t>
-  </si>
-  <si>
-    <t>FN-017</t>
-  </si>
-  <si>
-    <t>FN-018</t>
-  </si>
-  <si>
-    <t>FN-019</t>
-  </si>
-  <si>
-    <t>FN-020</t>
-  </si>
-  <si>
     <t>نموذج تعديل المناوبات والرواتب</t>
   </si>
   <si>
@@ -934,30 +484,6 @@
   </si>
   <si>
     <t>IT-002</t>
-  </si>
-  <si>
-    <t>IT-003</t>
-  </si>
-  <si>
-    <t>IT-004</t>
-  </si>
-  <si>
-    <t>IT-005</t>
-  </si>
-  <si>
-    <t>IT-006</t>
-  </si>
-  <si>
-    <t>IT-007</t>
-  </si>
-  <si>
-    <t>IT-008</t>
-  </si>
-  <si>
-    <t>IT-009</t>
-  </si>
-  <si>
-    <t>IT-010</t>
   </si>
   <si>
     <t>نموذج طلب شراء</t>
@@ -1414,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,10 +1122,10 @@
         <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -1731,123 +1257,102 @@
         <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1861,7 +1366,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E15"/>
+      <selection activeCell="A22" sqref="A4:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,162 +1414,126 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2122,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,7 +1623,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2163,7 +1632,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2171,72 +1640,56 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>301</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>303</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2278,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,249 +1765,81 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2564,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
+      <selection activeCell="A27" sqref="A6:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2598,243 +1883,57 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2846,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A4:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2878,20 +1977,20 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2899,162 +1998,126 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3113,7 +2176,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A24" sqref="A11:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3144,215 +2207,193 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3411,7 +2452,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A21" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3442,183 +2483,145 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3677,7 +2680,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A22" sqref="A4:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3708,7 +2711,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3717,7 +2720,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3725,162 +2728,126 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3939,7 +2906,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A23" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3970,7 +2937,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3979,7 +2946,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3987,162 +2954,126 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4201,7 +3132,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A22" sqref="A4:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4232,7 +3163,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4241,7 +3172,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4249,162 +3180,126 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
